--- a/6/6.xlsx
+++ b/6/6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Universidad\Base De Datos I\Ejercicios\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E31BE2-64B7-442B-B9DE-11958081D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902F20A-EFD1-4C1A-8D04-7ABECEF9FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <si>
     <t>MATERIA</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>MODALIDAD DE TITULACION LICENCIATURA</t>
-  </si>
-  <si>
-    <t>GLR001</t>
   </si>
   <si>
     <t>ELC101</t>
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,63 +1550,87 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
       </c>
+      <c r="E50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1">
         <v>6</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1">
         <v>6</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -1617,10 +1638,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -1628,10 +1649,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -1639,10 +1660,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1">
         <v>8</v>
